--- a/webextractor/extrator/static/documents/new.xlsx
+++ b/webextractor/extrator/static/documents/new.xlsx
@@ -486,37 +486,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fully RemoteDuration</t>
+          <t>Fully Remote</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fully RemoteDuration</t>
+          <t>cross-functional teams</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>computer vision</t>
+          <t>🚀.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Data Engineer InternLocation</t>
+          <t>Data Engineer Intern</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>unyielding passion for data engineering and a desire to push technological frontiers</t>
+          <t>push technological frontiers</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2 MonthsCompensation</t>
+          <t>2 Months</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Currently pursuing a degree in Computer Science, Data Engineering, or related fieldStrong</t>
+          <t>Currently pursuing a degree in Computer Science, Data Engineering, or related field</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cybiris-inc.com</t>
+          <t>contact@cybiris-inc.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Data Engineer Internship</t>
+          <t>Data Engineer Internship Application</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Please send your resume</t>
+          <t>Please send your resume to contact@cybiris-inc.com..</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
